--- a/onewayAnova_data.csv.xlsx
+++ b/onewayAnova_data.csv.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -51,7 +49,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -71,7 +69,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,89 +92,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,7 +408,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,55 +417,55 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>12</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>18</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>11</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>16</v>
       </c>
     </row>
@@ -548,28 +473,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>